--- a/TestData/Manually extracted minutiae/Normal/Template_Ale1439794734-Hamster-2-0.xlsx
+++ b/TestData/Manually extracted minutiae/Normal/Template_Ale1439794734-Hamster-2-0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.carrera\Documents\GitHub\libAFIS\TestData\Perfect minutiae\Normal fingers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.carrera\Documents\GitHub\libAFIS\TestData\Manually extracted minutiae\Normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>X</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Minutiae data</t>
   </si>
   <si>
-    <t>Finger Header</t>
-  </si>
-  <si>
     <t>Finger header</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>4087000B6600</t>
-  </si>
-  <si>
-    <t>464D52002032300000000144000000C0010C00C800C8010000006301</t>
-  </si>
-  <si>
     <t>464D520020323000000000</t>
   </si>
   <si>
@@ -113,6 +104,18 @@
   </si>
   <si>
     <t>0000</t>
+  </si>
+  <si>
+    <t>Finger Header Top</t>
+  </si>
+  <si>
+    <t>Finger Header Bottom</t>
+  </si>
+  <si>
+    <t>Bifurcation</t>
+  </si>
+  <si>
+    <t>Ending</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -185,12 +188,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -528,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -548,18 +545,18 @@
         <v>6</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>15</v>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C2">
         <v>153.87799999999999</v>
@@ -594,26 +591,26 @@
         <f>CONCATENATE(I2,J2,'Support Data'!$C$7,K2,L2,'Support Data'!$C$8)</f>
         <v>809900111200</v>
       </c>
-      <c r="P2" s="14" t="str">
+      <c r="P2" s="12" t="str">
         <f>CONCATENATE('Support Data'!D11,'Support Data'!D12,'Support Data'!D13,'Support Data'!D14)</f>
         <v>464D520020323000000000AE0000012C019000C500C5010000105B18</v>
       </c>
-      <c r="Q2" s="15" t="str">
+      <c r="Q2" s="13" t="str">
         <f>CONCATENATE(P2,P10,'Support Data'!C17)</f>
         <v>464D520020323000000000AE0000012C019000C500C5010000105B18809900111200407A0031920080AC002E0C00809200450A0080B5003A8D0040E80055830040EB006C0100403E00B5A20040BA00848500404700D71E00806900E21D0040FB00AA7300403201481E00409B012A2000404A015E1A004051016A1400407901701700809A01599E0080850173140040FA0156600080FE0148530080F00163670080C701550E0080F2018569000000</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>16</v>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <v>122.857</v>
@@ -648,20 +645,20 @@
         <f>CONCATENATE(I3,J3,'Support Data'!$C$7,K3,L3,'Support Data'!$C$8)</f>
         <v>407A00319200</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>15</v>
+      <c r="B4" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C4">
         <v>172.245</v>
@@ -696,19 +693,19 @@
         <f>CONCATENATE(I4,J4,'Support Data'!$C$7,K4,L4,'Support Data'!$C$8)</f>
         <v>80AC002E0C00</v>
       </c>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>15</v>
+      <c r="B5" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C5">
         <v>146.53100000000001</v>
@@ -743,19 +740,19 @@
         <f>CONCATENATE(I5,J5,'Support Data'!$C$7,K5,L5,'Support Data'!$C$8)</f>
         <v>809200450A00</v>
       </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C6">
         <v>181.22399999999999</v>
@@ -795,8 +792,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>16</v>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C7">
         <v>232.65299999999999</v>
@@ -836,8 +833,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>16</v>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C8">
         <v>235.102</v>
@@ -877,8 +874,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>16</v>
+      <c r="B9" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C9">
         <v>62.040999999999997</v>
@@ -914,15 +911,15 @@
         <v>403E00B5A200</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C10">
         <v>186.12200000000001</v>
@@ -966,8 +963,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>16</v>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>71.429000000000002</v>
@@ -1007,8 +1004,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C12">
         <v>105.306</v>
@@ -1048,8 +1045,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>16</v>
+      <c r="B13" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C13">
         <v>251.02</v>
@@ -1089,8 +1086,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>16</v>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C14">
         <v>50.612000000000002</v>
@@ -1130,8 +1127,8 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>16</v>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C15">
         <v>155.102</v>
@@ -1171,8 +1168,8 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>16</v>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C16">
         <v>74.694000000000003</v>
@@ -1212,8 +1209,8 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>16</v>
+      <c r="B17" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C17">
         <v>81.224000000000004</v>
@@ -1253,8 +1250,8 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>16</v>
+      <c r="B18" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C18">
         <v>121.633</v>
@@ -1294,8 +1291,8 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>15</v>
+      <c r="B19" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C19">
         <v>154.69399999999999</v>
@@ -1335,8 +1332,8 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>15</v>
+      <c r="B20" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C20">
         <v>133.46899999999999</v>
@@ -1376,8 +1373,8 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>16</v>
+      <c r="B21" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="C21">
         <v>250.61199999999999</v>
@@ -1417,10 +1414,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="10">
         <v>254.286</v>
       </c>
       <c r="D22">
@@ -1458,8 +1455,8 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>15</v>
+      <c r="B23" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C23">
         <v>240.816</v>
@@ -1499,8 +1496,8 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>15</v>
+      <c r="B24" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C24">
         <v>199.184</v>
@@ -1540,8 +1537,8 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>15</v>
+      <c r="B25" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C25">
         <v>242.44900000000001</v>
@@ -1600,7 +1597,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -1617,28 +1614,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1650,24 +1648,28 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1733,22 +1735,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="17"/>
+      <c r="B11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15"/>
       <c r="D12" t="str">
         <f>DEC2HEX(SUM(27,(6*D15),3))</f>
         <v>AE</v>
@@ -1758,20 +1760,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="15"/>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="17"/>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="15"/>
       <c r="D14" s="1" t="str">
         <f>DEC2HEX(COUNT('Collected Minutiae'!A2:A1000), 2)</f>
         <v>18</v>
@@ -1779,12 +1783,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="B15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="14"/>
       <c r="D15" s="1">
         <f>COUNT('Collected Minutiae'!A2:A1000)</f>
         <v>24</v>
@@ -1794,34 +1798,21 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="str">
-        <f>CONCATENATE(C21,C22,0)</f>
-        <v>464D52002032300000000144000000C0010C00C800C80100000063014087000B66000</v>
+        <v>24</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
